--- a/Simulation and calculations/flyback_V2.xlsx
+++ b/Simulation and calculations/flyback_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wutwaw-my.sharepoint.com/personal/01181267_pw_edu_pl/Documents/projekty/Humidity_Fan_Controll/Simulation and calculations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="8_{B51A328C-EA58-44B6-B0BF-C71B4840F0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F57785B-2DD3-4BB1-AECA-BF7BFB936475}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="8_{B51A328C-EA58-44B6-B0BF-C71B4840F0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE3A7BE5-DB63-4DC0-B5ED-00CFA65B3157}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{20CF6A40-28DB-4BEA-B9F3-DA315B65F5C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{20CF6A40-28DB-4BEA-B9F3-DA315B65F5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -492,10 +492,10 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -505,10 +505,10 @@
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -558,7 +558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>180</v>
       </c>
@@ -609,7 +609,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I11" t="s">
         <v>14</v>
       </c>
@@ -638,7 +638,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -687,7 +687,7 @@
         <v>3.251060606060606</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C13">
         <f>(B2*F13)/I2</f>
         <v>3.2000000000000003E-4</v>
@@ -704,7 +704,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>19</v>
       </c>
